--- a/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -120,7 +120,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Practitioner.telecom</t>
+    <t>extension:https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact</t>
   </si>
   <si>
     <t>ID</t>

--- a/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-telecom-usage.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
